--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_KNIVSTA/Översikt KNIVSTA.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>45112</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45121</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45121</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45121</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45133</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>45133</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>45133</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
